--- a/STM_TestDevice/bin/Debug/ConfigBatery_Root.xlsx
+++ b/STM_TestDevice/bin/Debug/ConfigBatery_Root.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ToanTV\STM\2.source c#\STM_TestDevice\STM_TestDevice\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CA4B2C49-EF46-4241-B626-F71BB76B552B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FF74B4E2-E16A-4344-809D-4111224F7821}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075" xr2:uid="{3F964BEB-74A6-4402-980A-389146205121}"/>
   </bookViews>
@@ -600,30 +600,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD7E60D-1862-479A-B89D-2751AB2D9A77}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -634,8 +635,17 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -646,7 +656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -672,7 +682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -686,7 +696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -694,7 +704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -708,7 +718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -719,7 +729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -730,11 +740,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -745,8 +755,17 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -754,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -762,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -770,7 +789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -781,82 +800,289 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>10</v>
+      </c>
+      <c r="L18">
+        <v>11</v>
+      </c>
+      <c r="M18">
+        <v>12</v>
+      </c>
+      <c r="N18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B19">
-        <v>1352</v>
+        <v>500</v>
       </c>
       <c r="C19">
-        <v>3625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="D19">
+        <v>500</v>
+      </c>
+      <c r="E19">
+        <v>500</v>
+      </c>
+      <c r="F19">
+        <v>500</v>
+      </c>
+      <c r="G19">
+        <v>500</v>
+      </c>
+      <c r="H19">
+        <v>500</v>
+      </c>
+      <c r="I19">
+        <v>500</v>
+      </c>
+      <c r="J19">
+        <v>500</v>
+      </c>
+      <c r="K19">
+        <v>500</v>
+      </c>
+      <c r="L19">
+        <v>500</v>
+      </c>
+      <c r="M19">
+        <v>500</v>
+      </c>
+      <c r="N19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B20">
-        <v>3125</v>
+        <v>1000</v>
       </c>
       <c r="C20">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
+        <v>1000</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+      <c r="H20">
+        <v>1000</v>
+      </c>
+      <c r="I20">
+        <v>1000</v>
+      </c>
+      <c r="J20">
+        <v>1000</v>
+      </c>
+      <c r="K20">
+        <v>1000</v>
+      </c>
+      <c r="L20">
+        <v>1000</v>
+      </c>
+      <c r="M20">
+        <v>1000</v>
+      </c>
+      <c r="N20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B21">
-        <v>3252</v>
+        <v>4200</v>
       </c>
       <c r="C21">
-        <v>4341</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4200</v>
+      </c>
+      <c r="D21">
+        <v>4200</v>
+      </c>
+      <c r="E21">
+        <v>4200</v>
+      </c>
+      <c r="F21">
+        <v>4200</v>
+      </c>
+      <c r="G21">
+        <v>4200</v>
+      </c>
+      <c r="H21">
+        <v>4200</v>
+      </c>
+      <c r="I21">
+        <v>4200</v>
+      </c>
+      <c r="J21">
+        <v>4200</v>
+      </c>
+      <c r="K21">
+        <v>4200</v>
+      </c>
+      <c r="L21">
+        <v>4200</v>
+      </c>
+      <c r="M21">
+        <v>4200</v>
+      </c>
+      <c r="N21">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B22">
-        <v>1231</v>
+        <v>3300</v>
       </c>
       <c r="C22">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3300</v>
+      </c>
+      <c r="D22">
+        <v>3300</v>
+      </c>
+      <c r="E22">
+        <v>3300</v>
+      </c>
+      <c r="F22">
+        <v>3300</v>
+      </c>
+      <c r="G22">
+        <v>3300</v>
+      </c>
+      <c r="H22">
+        <v>3300</v>
+      </c>
+      <c r="I22">
+        <v>3300</v>
+      </c>
+      <c r="J22">
+        <v>3300</v>
+      </c>
+      <c r="K22">
+        <v>3300</v>
+      </c>
+      <c r="L22">
+        <v>3300</v>
+      </c>
+      <c r="M22">
+        <v>3300</v>
+      </c>
+      <c r="N22">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B23">
-        <v>4253</v>
+        <v>2000</v>
       </c>
       <c r="C23">
-        <v>4253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
+      <c r="E23">
+        <v>2000</v>
+      </c>
+      <c r="F23">
+        <v>2000</v>
+      </c>
+      <c r="G23">
+        <v>2000</v>
+      </c>
+      <c r="H23">
+        <v>2000</v>
+      </c>
+      <c r="I23">
+        <v>2000</v>
+      </c>
+      <c r="J23">
+        <v>2000</v>
+      </c>
+      <c r="K23">
+        <v>2000</v>
+      </c>
+      <c r="L23">
+        <v>2000</v>
+      </c>
+      <c r="M23">
+        <v>2000</v>
+      </c>
+      <c r="N23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
@@ -867,39 +1093,72 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>11</v>
+      </c>
+      <c r="M26">
+        <v>12</v>
+      </c>
+      <c r="N26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -907,13 +1166,37 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>3</v>
       </c>
@@ -924,8 +1207,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -941,28 +1233,82 @@
       <c r="E30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>11</v>
+      </c>
+      <c r="M31">
+        <v>12</v>
+      </c>
+      <c r="N31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -973,16 +1319,25 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>5</v>
       </c>
@@ -993,8 +1348,17 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
